--- a/xlsx/中華民國_intext.xlsx
+++ b/xlsx/中華民國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4069">
   <si>
     <t>中華民國</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中國大陸</t>
   </si>
   <si>
-    <t>政策_政策_行政_中華民國</t>
+    <t>体育运动_体育运动_明成祖_中華民國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
@@ -3116,30 +3116,30 @@
     <t>自由地區</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BD%84%E5%B8%82%E5%B1%B1%E5%9C%B0%E5%8E%9F%E4%BD%8F%E6%B0%91%E5%8D%80</t>
+  </si>
+  <si>
+    <t>直轄市山地原住民區</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%9C%B0%E9%84%89</t>
+  </si>
+  <si>
+    <t>山地鄉</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B3%E5%B3%B6%E6%92%A4%E9%80%80</t>
   </si>
   <si>
     <t>大陳島撤退</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BD%84%E5%B8%82%E5%B1%B1%E5%9C%B0%E5%8E%9F%E4%BD%8F%E6%B0%91%E5%8D%80</t>
-  </si>
-  <si>
-    <t>直轄市山地原住民區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E6%B4%A5%E5%8D%80</t>
   </si>
   <si>
     <t>旗津區</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%9C%B0%E9%84%89</t>
-  </si>
-  <si>
-    <t>山地鄉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E5%9F%8E%E9%8E%AE</t>
   </si>
   <si>
@@ -8330,478 +8330,502 @@
     <t>马来西亚</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>巴士海峽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>台湾地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%BD%93%E5%B1%80</t>
+  </si>
+  <si>
+    <t>台湾当局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>台湾历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%AD%B7%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>台灣歷史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8F%B2%E5%89%8D%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>臺灣史前時期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%80%83%E5%8F%A4%E9%81%BA%E5%9D%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣考古遺址列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A5%BF%E7%8F%AD%E7%89%99%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>臺灣西班牙統治時期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E9%84%AD%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>明鄭時期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B8%85%E6%B2%BB%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>臺灣清治時期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%88%87%E8%A5%BF%E7%8F%AD%E7%89%99%E9%97%9C%E4%BF%82%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>臺灣與西班牙關係史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E8%87%AA%E7%84%B6%E7%81%BE%E5%AE%B3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>台湾自然灾害列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>臺灣海岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%81%AB%E5%B1%B1%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣火山列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%99%BE%E5%B2%B3</t>
+  </si>
+  <si>
+    <t>臺灣百岳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B9%96%E6%B3%8A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣湖泊列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%80%91%E5%B8%83%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>台灣瀑布列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BF%95%E5%9C%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣濕地列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E8%B3%AA</t>
+  </si>
+  <si>
+    <t>臺灣地質</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%B7%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>臺灣斷層</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BA%AB%E6%B3%89</t>
+  </si>
+  <si>
+    <t>臺灣溫泉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
+  </si>
+  <si>
+    <t>台灣自然保護區</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>臺灣政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E8%A8%80%E8%AE%BA%E5%AE%A1%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>中华民国言论审查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%BA%BA%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>臺灣人權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中華民國國家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%94%BF%E9%83%A8%E8%AD%A6%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>內政部警政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%85%B5%E5%BD%B9%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>臺灣兵役制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%80%8B%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>兩個中國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B8%BB%E9%AB%94%E6%84%8F%E8%AD%98</t>
+  </si>
+  <si>
+    <t>台灣主體意識</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>中華思想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E6%84%8F%E8%AF%86%E8%AE%BA%E6%88%98</t>
+  </si>
+  <si>
+    <t>台湾意识论战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E8%87%BA%E7%81%A3%E5%8C%96</t>
+  </si>
+  <si>
+    <t>去臺灣化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E6%9C%AC%E5%9C%9F%E5%8C%96%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>台湾本土化运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%8F%B2%E8%A7%80</t>
+  </si>
+  <si>
+    <t>中國史觀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%B3%B6%E5%8F%B2%E8%A7%80</t>
+  </si>
+  <si>
+    <t>臺灣島史觀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>中国民族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BB%9F%E4%B8%80</t>
+  </si>
+  <si>
+    <t>中国统一</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>台湾经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%8A%80%E8%A1%8C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣銀行列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%B6%93%E6%BF%9F%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>臺灣經濟史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%83%BD%E6%BA%90</t>
+  </si>
+  <si>
+    <t>臺灣能源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E5%8A%9B%E7%94%A2%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>台灣電力產業</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%85%A4%E7%A4%A6</t>
+  </si>
+  <si>
+    <t>台灣煤礦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%83%BD%E6%9C%83%E5%8D%80</t>
+  </si>
+  <si>
+    <t>臺灣都會區</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
+  </si>
+  <si>
+    <t>臺灣證券交易所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%AD%89%E5%88%B8%E6%AB%83%E6%AA%AF%E8%B2%B7%E8%B3%A3%E4%B8%AD%E5%BF%83</t>
+  </si>
+  <si>
+    <t>財團法人中華民國證券櫃檯買賣中心</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>臺灣交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8C%97%E8%BC%95%E5%8D%97</t>
+  </si>
+  <si>
+    <t>重北輕南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%8B%E9%9A%9B%E6%8C%87%E6%95%B8%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣國際指數列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E7%A9%BA%E6%B0%94%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>台湾空气污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>臺灣文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%8F%9C</t>
+  </si>
+  <si>
+    <t>臺灣菜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%87%E5%8C%96%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>臺灣文化史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%85%AC%E7%9B%8A%E5%BD%A9%E5%88%B8</t>
+  </si>
+  <si>
+    <t>中華民國公益彩券</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>臺灣文學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%BB%BA%E7%AF%89</t>
+  </si>
+  <si>
+    <t>台灣建築</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>臺灣音樂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%94%9D%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>臺灣攝影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>臺灣宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%AB%94%E8%82%B2</t>
+  </si>
+  <si>
+    <t>臺灣體育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A7%80%E5%85%89%E6%99%AF%E9%BB%9E%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣觀光景點列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>臺灣哲學</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>臺灣電視</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>中華民國國徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>中華民國國花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E7%92%BD</t>
+  </si>
+  <si>
+    <t>中華民國國璽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B9%8B%E5%85%89</t>
+  </si>
+  <si>
+    <t>台灣之光</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E9%86%AB%E5%AD%B8%E4%B8%AD%E5%BF%83%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>中華民國醫學中心列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%86%AB%E9%99%A2%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣醫院列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%99%BC%E6%98%8E%E8%88%87%E7%99%BC%E7%8F%BE%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣發明與發現列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3LGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>台灣LGBT權益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9E%83%E5%9C%BE%E7%84%9A%E5%8C%96%E7%88%90%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>臺灣垃圾焚化爐列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83%E6%B2%BF%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>中華民國行政區劃沿革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F%E8%A1%8C%E6%94%BF%E5%8D%80%E9%9D%A2%E7%A9%8D%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>中華民國大陸時期行政區面積表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1955%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>1955年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>中央政府所在地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>1998年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1956%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>1956年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>亚洲太平洋经济合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
   </si>
   <si>
     <t>文莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>巴士海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>台湾地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%BD%93%E5%B1%80</t>
-  </si>
-  <si>
-    <t>台湾当局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>台湾历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%AD%B7%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>台灣歷史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8F%B2%E5%89%8D%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>臺灣史前時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%80%83%E5%8F%A4%E9%81%BA%E5%9D%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣考古遺址列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A5%BF%E7%8F%AD%E7%89%99%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>臺灣西班牙統治時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E9%84%AD%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>明鄭時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B8%85%E6%B2%BB%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>臺灣清治時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%88%87%E8%A5%BF%E7%8F%AD%E7%89%99%E9%97%9C%E4%BF%82%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>臺灣與西班牙關係史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E8%87%AA%E7%84%B6%E7%81%BE%E5%AE%B3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>台湾自然灾害列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>臺灣海岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%81%AB%E5%B1%B1%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣火山列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%99%BE%E5%B2%B3</t>
-  </si>
-  <si>
-    <t>臺灣百岳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B9%96%E6%B3%8A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣湖泊列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%80%91%E5%B8%83%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>台灣瀑布列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BF%95%E5%9C%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣濕地列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E8%B3%AA</t>
-  </si>
-  <si>
-    <t>臺灣地質</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%B7%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>臺灣斷層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BA%AB%E6%B3%89</t>
-  </si>
-  <si>
-    <t>臺灣溫泉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
-  </si>
-  <si>
-    <t>台灣自然保護區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>臺灣政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E8%A8%80%E8%AE%BA%E5%AE%A1%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>中华民国言论审查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%BA%BA%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>臺灣人權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中華民國國家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%94%BF%E9%83%A8%E8%AD%A6%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>內政部警政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%85%B5%E5%BD%B9%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>臺灣兵役制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%80%8B%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>兩個中國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B8%BB%E9%AB%94%E6%84%8F%E8%AD%98</t>
-  </si>
-  <si>
-    <t>台灣主體意識</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>中華思想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E6%84%8F%E8%AF%86%E8%AE%BA%E6%88%98</t>
-  </si>
-  <si>
-    <t>台湾意识论战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E8%87%BA%E7%81%A3%E5%8C%96</t>
-  </si>
-  <si>
-    <t>去臺灣化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E6%9C%AC%E5%9C%9F%E5%8C%96%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>台湾本土化运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%8F%B2%E8%A7%80</t>
-  </si>
-  <si>
-    <t>中國史觀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%B3%B6%E5%8F%B2%E8%A7%80</t>
-  </si>
-  <si>
-    <t>臺灣島史觀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>中国民族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%BB%9F%E4%B8%80</t>
-  </si>
-  <si>
-    <t>中国统一</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>台湾经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%8A%80%E8%A1%8C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣銀行列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%B6%93%E6%BF%9F%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>臺灣經濟史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%83%BD%E6%BA%90</t>
-  </si>
-  <si>
-    <t>臺灣能源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E5%8A%9B%E7%94%A2%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>台灣電力產業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%85%A4%E7%A4%A6</t>
-  </si>
-  <si>
-    <t>台灣煤礦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%83%BD%E6%9C%83%E5%8D%80</t>
-  </si>
-  <si>
-    <t>臺灣都會區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
-  </si>
-  <si>
-    <t>臺灣證券交易所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%AD%89%E5%88%B8%E6%AB%83%E6%AA%AF%E8%B2%B7%E8%B3%A3%E4%B8%AD%E5%BF%83</t>
-  </si>
-  <si>
-    <t>財團法人中華民國證券櫃檯買賣中心</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>臺灣交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%99%BC%E6%98%8E%E8%88%87%E7%99%BC%E7%8F%BE%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣發明與發現列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%8B%E9%9A%9B%E6%8C%87%E6%95%B8%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣國際指數列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3LGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>台灣LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9E%83%E5%9C%BE%E7%84%9A%E5%8C%96%E7%88%90%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣垃圾焚化爐列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>臺灣文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%8F%9C</t>
-  </si>
-  <si>
-    <t>臺灣菜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%87%E5%8C%96%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>臺灣文化史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%85%AC%E7%9B%8A%E5%BD%A9%E5%88%B8</t>
-  </si>
-  <si>
-    <t>中華民國公益彩券</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>臺灣文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%BB%BA%E7%AF%89</t>
-  </si>
-  <si>
-    <t>台灣建築</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>臺灣音樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%94%9D%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>臺灣攝影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>臺灣宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%AB%94%E8%82%B2</t>
-  </si>
-  <si>
-    <t>臺灣體育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A7%80%E5%85%89%E6%99%AF%E9%BB%9E%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>臺灣觀光景點列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>臺灣哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>臺灣電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>中華民國國徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>中華民國國花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E7%92%BD</t>
-  </si>
-  <si>
-    <t>中華民國國璽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B9%8B%E5%85%89</t>
-  </si>
-  <si>
-    <t>台灣之光</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83%E6%B2%BF%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>中華民國行政區劃沿革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F%E8%A1%8C%E6%94%BF%E5%8D%80%E9%9D%A2%E7%A9%8D%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>中華民國大陸時期行政區面積表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1955%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>1955年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>中央政府所在地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>1998年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1956%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>1956年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>亚洲太平洋经济合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -12546,7 +12570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2163"/>
+  <dimension ref="A1:I2167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14253,7 +14277,7 @@
         <v>114</v>
       </c>
       <c r="G59" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -16689,7 +16713,7 @@
         <v>276</v>
       </c>
       <c r="G143" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -17472,7 +17496,7 @@
         <v>326</v>
       </c>
       <c r="G170" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -28202,7 +28226,7 @@
         <v>1016</v>
       </c>
       <c r="G540" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -28231,7 +28255,7 @@
         <v>1018</v>
       </c>
       <c r="G541" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -28260,7 +28284,7 @@
         <v>1020</v>
       </c>
       <c r="G542" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H542" t="s">
         <v>4</v>
@@ -28376,7 +28400,7 @@
         <v>1028</v>
       </c>
       <c r="G546" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -28463,7 +28487,7 @@
         <v>1034</v>
       </c>
       <c r="G549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H549" t="s">
         <v>4</v>
@@ -28521,7 +28545,7 @@
         <v>1038</v>
       </c>
       <c r="G551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -36612,7 +36636,7 @@
         <v>948</v>
       </c>
       <c r="G830" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H830" t="s">
         <v>4</v>
@@ -54679,7 +54703,7 @@
         <v>2774</v>
       </c>
       <c r="G1453" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1453" t="s">
         <v>4</v>
@@ -54702,13 +54726,13 @@
         <v>1453</v>
       </c>
       <c r="E1454" t="s">
-        <v>2775</v>
+        <v>11</v>
       </c>
       <c r="F1454" t="s">
-        <v>2776</v>
+        <v>12</v>
       </c>
       <c r="G1454" t="n">
-        <v>1</v>
+        <v>422</v>
       </c>
       <c r="H1454" t="s">
         <v>4</v>
@@ -54737,7 +54761,7 @@
         <v>12</v>
       </c>
       <c r="G1455" t="n">
-        <v>422</v>
+        <v>2</v>
       </c>
       <c r="H1455" t="s">
         <v>4</v>
@@ -54760,13 +54784,13 @@
         <v>1455</v>
       </c>
       <c r="E1456" t="s">
-        <v>11</v>
+        <v>2775</v>
       </c>
       <c r="F1456" t="s">
-        <v>12</v>
+        <v>2776</v>
       </c>
       <c r="G1456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1456" t="s">
         <v>4</v>
@@ -54824,7 +54848,7 @@
         <v>2780</v>
       </c>
       <c r="G1458" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1458" t="s">
         <v>4</v>
@@ -54853,7 +54877,7 @@
         <v>2782</v>
       </c>
       <c r="G1459" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1459" t="s">
         <v>4</v>
@@ -55021,10 +55045,10 @@
         <v>1464</v>
       </c>
       <c r="E1465" t="s">
-        <v>2793</v>
+        <v>635</v>
       </c>
       <c r="F1465" t="s">
-        <v>2794</v>
+        <v>636</v>
       </c>
       <c r="G1465" t="n">
         <v>1</v>
@@ -55050,13 +55074,13 @@
         <v>1465</v>
       </c>
       <c r="E1466" t="s">
-        <v>635</v>
+        <v>2793</v>
       </c>
       <c r="F1466" t="s">
-        <v>636</v>
+        <v>2794</v>
       </c>
       <c r="G1466" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1466" t="s">
         <v>4</v>
@@ -55079,13 +55103,13 @@
         <v>1466</v>
       </c>
       <c r="E1467" t="s">
-        <v>2795</v>
+        <v>249</v>
       </c>
       <c r="F1467" t="s">
-        <v>2796</v>
+        <v>250</v>
       </c>
       <c r="G1467" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1467" t="s">
         <v>4</v>
@@ -55108,10 +55132,10 @@
         <v>1467</v>
       </c>
       <c r="E1468" t="s">
-        <v>249</v>
+        <v>1503</v>
       </c>
       <c r="F1468" t="s">
-        <v>250</v>
+        <v>1504</v>
       </c>
       <c r="G1468" t="n">
         <v>10</v>
@@ -55137,13 +55161,13 @@
         <v>1468</v>
       </c>
       <c r="E1469" t="s">
-        <v>1503</v>
+        <v>919</v>
       </c>
       <c r="F1469" t="s">
-        <v>1504</v>
+        <v>920</v>
       </c>
       <c r="G1469" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1469" t="s">
         <v>4</v>
@@ -55166,13 +55190,13 @@
         <v>1469</v>
       </c>
       <c r="E1470" t="s">
-        <v>919</v>
+        <v>2795</v>
       </c>
       <c r="F1470" t="s">
-        <v>920</v>
+        <v>2796</v>
       </c>
       <c r="G1470" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1470" t="s">
         <v>4</v>
@@ -55201,7 +55225,7 @@
         <v>2798</v>
       </c>
       <c r="G1471" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1471" t="s">
         <v>4</v>
@@ -55230,7 +55254,7 @@
         <v>2800</v>
       </c>
       <c r="G1472" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H1472" t="s">
         <v>4</v>
@@ -55259,7 +55283,7 @@
         <v>2802</v>
       </c>
       <c r="G1473" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1473" t="s">
         <v>4</v>
@@ -55288,7 +55312,7 @@
         <v>2804</v>
       </c>
       <c r="G1474" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1474" t="s">
         <v>4</v>
@@ -55317,7 +55341,7 @@
         <v>2806</v>
       </c>
       <c r="G1475" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1475" t="s">
         <v>4</v>
@@ -55375,7 +55399,7 @@
         <v>2810</v>
       </c>
       <c r="G1477" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H1477" t="s">
         <v>4</v>
@@ -55404,7 +55428,7 @@
         <v>2812</v>
       </c>
       <c r="G1478" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H1478" t="s">
         <v>4</v>
@@ -55433,7 +55457,7 @@
         <v>2814</v>
       </c>
       <c r="G1479" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1479" t="s">
         <v>4</v>
@@ -55456,13 +55480,13 @@
         <v>1479</v>
       </c>
       <c r="E1480" t="s">
-        <v>2815</v>
+        <v>1977</v>
       </c>
       <c r="F1480" t="s">
-        <v>2816</v>
+        <v>1978</v>
       </c>
       <c r="G1480" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1480" t="s">
         <v>4</v>
@@ -55485,10 +55509,10 @@
         <v>1480</v>
       </c>
       <c r="E1481" t="s">
-        <v>1977</v>
+        <v>2815</v>
       </c>
       <c r="F1481" t="s">
-        <v>1978</v>
+        <v>2816</v>
       </c>
       <c r="G1481" t="n">
         <v>2</v>
@@ -55520,7 +55544,7 @@
         <v>2818</v>
       </c>
       <c r="G1482" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H1482" t="s">
         <v>4</v>
@@ -55543,13 +55567,13 @@
         <v>1482</v>
       </c>
       <c r="E1483" t="s">
-        <v>2819</v>
+        <v>947</v>
       </c>
       <c r="F1483" t="s">
-        <v>2820</v>
+        <v>948</v>
       </c>
       <c r="G1483" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="H1483" t="s">
         <v>4</v>
@@ -55572,13 +55596,13 @@
         <v>1483</v>
       </c>
       <c r="E1484" t="s">
-        <v>947</v>
+        <v>2819</v>
       </c>
       <c r="F1484" t="s">
-        <v>948</v>
+        <v>2820</v>
       </c>
       <c r="G1484" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H1484" t="s">
         <v>4</v>
@@ -55601,13 +55625,13 @@
         <v>1484</v>
       </c>
       <c r="E1485" t="s">
-        <v>2821</v>
+        <v>1125</v>
       </c>
       <c r="F1485" t="s">
-        <v>2822</v>
+        <v>1126</v>
       </c>
       <c r="G1485" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H1485" t="s">
         <v>4</v>
@@ -55630,13 +55654,13 @@
         <v>1485</v>
       </c>
       <c r="E1486" t="s">
-        <v>1125</v>
+        <v>2821</v>
       </c>
       <c r="F1486" t="s">
-        <v>1126</v>
+        <v>2822</v>
       </c>
       <c r="G1486" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H1486" t="s">
         <v>4</v>
@@ -55665,7 +55689,7 @@
         <v>2824</v>
       </c>
       <c r="G1487" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1487" t="s">
         <v>4</v>
@@ -55688,13 +55712,13 @@
         <v>1487</v>
       </c>
       <c r="E1488" t="s">
-        <v>2825</v>
+        <v>1169</v>
       </c>
       <c r="F1488" t="s">
-        <v>2826</v>
+        <v>1170</v>
       </c>
       <c r="G1488" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H1488" t="s">
         <v>4</v>
@@ -55717,13 +55741,13 @@
         <v>1488</v>
       </c>
       <c r="E1489" t="s">
-        <v>1169</v>
+        <v>2825</v>
       </c>
       <c r="F1489" t="s">
-        <v>1170</v>
+        <v>2826</v>
       </c>
       <c r="G1489" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H1489" t="s">
         <v>4</v>
@@ -55746,13 +55770,13 @@
         <v>1489</v>
       </c>
       <c r="E1490" t="s">
-        <v>2827</v>
+        <v>1159</v>
       </c>
       <c r="F1490" t="s">
-        <v>2828</v>
+        <v>1160</v>
       </c>
       <c r="G1490" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1490" t="s">
         <v>4</v>
@@ -55775,13 +55799,13 @@
         <v>1490</v>
       </c>
       <c r="E1491" t="s">
-        <v>1159</v>
+        <v>657</v>
       </c>
       <c r="F1491" t="s">
-        <v>1160</v>
+        <v>658</v>
       </c>
       <c r="G1491" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1491" t="s">
         <v>4</v>
@@ -55804,13 +55828,13 @@
         <v>1491</v>
       </c>
       <c r="E1492" t="s">
-        <v>657</v>
+        <v>2827</v>
       </c>
       <c r="F1492" t="s">
-        <v>658</v>
+        <v>2828</v>
       </c>
       <c r="G1492" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1492" t="s">
         <v>4</v>
@@ -55833,13 +55857,13 @@
         <v>1492</v>
       </c>
       <c r="E1493" t="s">
-        <v>2829</v>
+        <v>1203</v>
       </c>
       <c r="F1493" t="s">
-        <v>2830</v>
+        <v>1204</v>
       </c>
       <c r="G1493" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H1493" t="s">
         <v>4</v>
@@ -55862,13 +55886,13 @@
         <v>1493</v>
       </c>
       <c r="E1494" t="s">
-        <v>1203</v>
+        <v>297</v>
       </c>
       <c r="F1494" t="s">
-        <v>1204</v>
+        <v>298</v>
       </c>
       <c r="G1494" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1494" t="s">
         <v>4</v>
@@ -55891,13 +55915,13 @@
         <v>1494</v>
       </c>
       <c r="E1495" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="F1495" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="G1495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1495" t="s">
         <v>4</v>
@@ -55920,10 +55944,10 @@
         <v>1495</v>
       </c>
       <c r="E1496" t="s">
-        <v>239</v>
+        <v>1301</v>
       </c>
       <c r="F1496" t="s">
-        <v>240</v>
+        <v>1302</v>
       </c>
       <c r="G1496" t="n">
         <v>1</v>
@@ -55949,13 +55973,13 @@
         <v>1496</v>
       </c>
       <c r="E1497" t="s">
-        <v>1301</v>
+        <v>2829</v>
       </c>
       <c r="F1497" t="s">
-        <v>1302</v>
+        <v>2830</v>
       </c>
       <c r="G1497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1497" t="s">
         <v>4</v>
@@ -55978,13 +56002,13 @@
         <v>1497</v>
       </c>
       <c r="E1498" t="s">
-        <v>2831</v>
+        <v>283</v>
       </c>
       <c r="F1498" t="s">
-        <v>2832</v>
+        <v>284</v>
       </c>
       <c r="G1498" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1498" t="s">
         <v>4</v>
@@ -56007,13 +56031,13 @@
         <v>1498</v>
       </c>
       <c r="E1499" t="s">
-        <v>283</v>
+        <v>2831</v>
       </c>
       <c r="F1499" t="s">
-        <v>284</v>
+        <v>2832</v>
       </c>
       <c r="G1499" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1499" t="s">
         <v>4</v>
@@ -56274,7 +56298,7 @@
         <v>2850</v>
       </c>
       <c r="G1508" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1508" t="s">
         <v>4</v>
@@ -56303,7 +56327,7 @@
         <v>2852</v>
       </c>
       <c r="G1509" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1509" t="s">
         <v>4</v>
@@ -56326,13 +56350,13 @@
         <v>1509</v>
       </c>
       <c r="E1510" t="s">
-        <v>2853</v>
+        <v>203</v>
       </c>
       <c r="F1510" t="s">
-        <v>2854</v>
+        <v>204</v>
       </c>
       <c r="G1510" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1510" t="s">
         <v>4</v>
@@ -56355,13 +56379,13 @@
         <v>1510</v>
       </c>
       <c r="E1511" t="s">
-        <v>203</v>
+        <v>2853</v>
       </c>
       <c r="F1511" t="s">
-        <v>204</v>
+        <v>2854</v>
       </c>
       <c r="G1511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1511" t="s">
         <v>4</v>
@@ -56390,7 +56414,7 @@
         <v>2856</v>
       </c>
       <c r="G1512" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1512" t="s">
         <v>4</v>
@@ -56448,7 +56472,7 @@
         <v>2860</v>
       </c>
       <c r="G1514" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1514" t="s">
         <v>4</v>
@@ -56477,7 +56501,7 @@
         <v>2862</v>
       </c>
       <c r="G1515" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1515" t="s">
         <v>4</v>
@@ -56506,7 +56530,7 @@
         <v>2864</v>
       </c>
       <c r="G1516" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1516" t="s">
         <v>4</v>
@@ -56564,7 +56588,7 @@
         <v>2868</v>
       </c>
       <c r="G1518" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="H1518" t="s">
         <v>4</v>
@@ -56593,7 +56617,7 @@
         <v>2870</v>
       </c>
       <c r="G1519" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H1519" t="s">
         <v>4</v>
@@ -56616,13 +56640,13 @@
         <v>1519</v>
       </c>
       <c r="E1520" t="s">
-        <v>1711</v>
+        <v>2871</v>
       </c>
       <c r="F1520" t="s">
-        <v>1712</v>
+        <v>2872</v>
       </c>
       <c r="G1520" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="H1520" t="s">
         <v>4</v>
@@ -56645,13 +56669,13 @@
         <v>1520</v>
       </c>
       <c r="E1521" t="s">
-        <v>1713</v>
+        <v>1781</v>
       </c>
       <c r="F1521" t="s">
-        <v>1714</v>
+        <v>1782</v>
       </c>
       <c r="G1521" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H1521" t="s">
         <v>4</v>
@@ -56674,10 +56698,10 @@
         <v>1521</v>
       </c>
       <c r="E1522" t="s">
-        <v>1677</v>
+        <v>2873</v>
       </c>
       <c r="F1522" t="s">
-        <v>1678</v>
+        <v>2874</v>
       </c>
       <c r="G1522" t="n">
         <v>3</v>
@@ -56703,13 +56727,13 @@
         <v>1522</v>
       </c>
       <c r="E1523" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="F1523" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="G1523" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="H1523" t="s">
         <v>4</v>
@@ -56732,13 +56756,13 @@
         <v>1523</v>
       </c>
       <c r="E1524" t="s">
-        <v>2873</v>
+        <v>1919</v>
       </c>
       <c r="F1524" t="s">
-        <v>2874</v>
+        <v>1920</v>
       </c>
       <c r="G1524" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H1524" t="s">
         <v>4</v>
@@ -56761,13 +56785,13 @@
         <v>1524</v>
       </c>
       <c r="E1525" t="s">
-        <v>1781</v>
+        <v>2877</v>
       </c>
       <c r="F1525" t="s">
-        <v>1782</v>
+        <v>2878</v>
       </c>
       <c r="G1525" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1525" t="s">
         <v>4</v>
@@ -56790,13 +56814,13 @@
         <v>1525</v>
       </c>
       <c r="E1526" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="F1526" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="G1526" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1526" t="s">
         <v>4</v>
@@ -56819,10 +56843,10 @@
         <v>1526</v>
       </c>
       <c r="E1527" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="F1527" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="G1527" t="n">
         <v>1</v>
@@ -56848,13 +56872,13 @@
         <v>1527</v>
       </c>
       <c r="E1528" t="s">
-        <v>2879</v>
+        <v>1581</v>
       </c>
       <c r="F1528" t="s">
-        <v>2880</v>
+        <v>1582</v>
       </c>
       <c r="G1528" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H1528" t="s">
         <v>4</v>
@@ -56877,13 +56901,13 @@
         <v>1528</v>
       </c>
       <c r="E1529" t="s">
-        <v>1919</v>
+        <v>2883</v>
       </c>
       <c r="F1529" t="s">
-        <v>1920</v>
+        <v>2884</v>
       </c>
       <c r="G1529" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1529" t="s">
         <v>4</v>
@@ -56906,13 +56930,13 @@
         <v>1529</v>
       </c>
       <c r="E1530" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="F1530" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="G1530" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1530" t="s">
         <v>4</v>
@@ -56935,13 +56959,13 @@
         <v>1530</v>
       </c>
       <c r="E1531" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="F1531" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="G1531" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H1531" t="s">
         <v>4</v>
@@ -56964,13 +56988,13 @@
         <v>1531</v>
       </c>
       <c r="E1532" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="F1532" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="G1532" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1532" t="s">
         <v>4</v>
@@ -56993,13 +57017,13 @@
         <v>1532</v>
       </c>
       <c r="E1533" t="s">
-        <v>1581</v>
+        <v>2891</v>
       </c>
       <c r="F1533" t="s">
-        <v>1582</v>
+        <v>2892</v>
       </c>
       <c r="G1533" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1533" t="s">
         <v>4</v>
@@ -57022,13 +57046,13 @@
         <v>1533</v>
       </c>
       <c r="E1534" t="s">
-        <v>2887</v>
+        <v>2893</v>
       </c>
       <c r="F1534" t="s">
-        <v>2888</v>
+        <v>2894</v>
       </c>
       <c r="G1534" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H1534" t="s">
         <v>4</v>
@@ -57051,13 +57075,13 @@
         <v>1534</v>
       </c>
       <c r="E1535" t="s">
-        <v>2889</v>
+        <v>1789</v>
       </c>
       <c r="F1535" t="s">
-        <v>2890</v>
+        <v>1790</v>
       </c>
       <c r="G1535" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1535" t="s">
         <v>4</v>
@@ -57080,13 +57104,13 @@
         <v>1535</v>
       </c>
       <c r="E1536" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="F1536" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="G1536" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1536" t="s">
         <v>4</v>
@@ -57109,13 +57133,13 @@
         <v>1536</v>
       </c>
       <c r="E1537" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="F1537" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="G1537" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1537" t="s">
         <v>4</v>
@@ -57138,13 +57162,13 @@
         <v>1537</v>
       </c>
       <c r="E1538" t="s">
-        <v>2895</v>
+        <v>1743</v>
       </c>
       <c r="F1538" t="s">
-        <v>2896</v>
+        <v>1744</v>
       </c>
       <c r="G1538" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H1538" t="s">
         <v>4</v>
@@ -57167,13 +57191,13 @@
         <v>1538</v>
       </c>
       <c r="E1539" t="s">
-        <v>2897</v>
+        <v>1745</v>
       </c>
       <c r="F1539" t="s">
-        <v>2898</v>
+        <v>1746</v>
       </c>
       <c r="G1539" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1539" t="s">
         <v>4</v>
@@ -57196,13 +57220,13 @@
         <v>1539</v>
       </c>
       <c r="E1540" t="s">
-        <v>1789</v>
+        <v>2899</v>
       </c>
       <c r="F1540" t="s">
-        <v>1790</v>
+        <v>2900</v>
       </c>
       <c r="G1540" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H1540" t="s">
         <v>4</v>
@@ -57225,13 +57249,13 @@
         <v>1540</v>
       </c>
       <c r="E1541" t="s">
-        <v>2899</v>
+        <v>259</v>
       </c>
       <c r="F1541" t="s">
-        <v>2900</v>
+        <v>260</v>
       </c>
       <c r="G1541" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="H1541" t="s">
         <v>4</v>
@@ -57260,7 +57284,7 @@
         <v>2902</v>
       </c>
       <c r="G1542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1542" t="s">
         <v>4</v>
@@ -57283,13 +57307,13 @@
         <v>1542</v>
       </c>
       <c r="E1543" t="s">
-        <v>1743</v>
+        <v>2903</v>
       </c>
       <c r="F1543" t="s">
-        <v>1744</v>
+        <v>2904</v>
       </c>
       <c r="G1543" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H1543" t="s">
         <v>4</v>
@@ -57312,10 +57336,10 @@
         <v>1543</v>
       </c>
       <c r="E1544" t="s">
-        <v>1745</v>
+        <v>2905</v>
       </c>
       <c r="F1544" t="s">
-        <v>1746</v>
+        <v>2906</v>
       </c>
       <c r="G1544" t="n">
         <v>1</v>
@@ -57341,13 +57365,13 @@
         <v>1544</v>
       </c>
       <c r="E1545" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="F1545" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="G1545" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H1545" t="s">
         <v>4</v>
@@ -57370,13 +57394,13 @@
         <v>1545</v>
       </c>
       <c r="E1546" t="s">
-        <v>259</v>
+        <v>2909</v>
       </c>
       <c r="F1546" t="s">
-        <v>260</v>
+        <v>2910</v>
       </c>
       <c r="G1546" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H1546" t="s">
         <v>4</v>
@@ -57399,10 +57423,10 @@
         <v>1546</v>
       </c>
       <c r="E1547" t="s">
-        <v>2905</v>
+        <v>2911</v>
       </c>
       <c r="F1547" t="s">
-        <v>2906</v>
+        <v>2912</v>
       </c>
       <c r="G1547" t="n">
         <v>1</v>
@@ -57428,13 +57452,13 @@
         <v>1547</v>
       </c>
       <c r="E1548" t="s">
-        <v>2907</v>
+        <v>1677</v>
       </c>
       <c r="F1548" t="s">
-        <v>2908</v>
+        <v>1678</v>
       </c>
       <c r="G1548" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1548" t="s">
         <v>4</v>
@@ -57457,13 +57481,13 @@
         <v>1548</v>
       </c>
       <c r="E1549" t="s">
-        <v>2909</v>
+        <v>1711</v>
       </c>
       <c r="F1549" t="s">
-        <v>2910</v>
+        <v>1712</v>
       </c>
       <c r="G1549" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H1549" t="s">
         <v>4</v>
@@ -57486,13 +57510,13 @@
         <v>1549</v>
       </c>
       <c r="E1550" t="s">
-        <v>2911</v>
+        <v>1713</v>
       </c>
       <c r="F1550" t="s">
-        <v>2912</v>
+        <v>1714</v>
       </c>
       <c r="G1550" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H1550" t="s">
         <v>4</v>
@@ -57573,13 +57597,13 @@
         <v>1552</v>
       </c>
       <c r="E1553" t="s">
-        <v>213</v>
+        <v>2917</v>
       </c>
       <c r="F1553" t="s">
-        <v>214</v>
+        <v>2918</v>
       </c>
       <c r="G1553" t="n">
-        <v>442</v>
+        <v>1</v>
       </c>
       <c r="H1553" t="s">
         <v>4</v>
@@ -57602,13 +57626,13 @@
         <v>1553</v>
       </c>
       <c r="E1554" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="F1554" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="G1554" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1554" t="s">
         <v>4</v>
@@ -57631,13 +57655,13 @@
         <v>1554</v>
       </c>
       <c r="E1555" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="F1555" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="G1555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1555" t="s">
         <v>4</v>
@@ -57660,13 +57684,13 @@
         <v>1555</v>
       </c>
       <c r="E1556" t="s">
-        <v>1013</v>
+        <v>213</v>
       </c>
       <c r="F1556" t="s">
-        <v>1014</v>
+        <v>214</v>
       </c>
       <c r="G1556" t="n">
-        <v>2</v>
+        <v>442</v>
       </c>
       <c r="H1556" t="s">
         <v>4</v>
@@ -57689,13 +57713,13 @@
         <v>1556</v>
       </c>
       <c r="E1557" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="F1557" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="G1557" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H1557" t="s">
         <v>4</v>
@@ -57718,10 +57742,10 @@
         <v>1557</v>
       </c>
       <c r="E1558" t="s">
-        <v>1005</v>
+        <v>2925</v>
       </c>
       <c r="F1558" t="s">
-        <v>1006</v>
+        <v>2926</v>
       </c>
       <c r="G1558" t="n">
         <v>2</v>
@@ -57747,13 +57771,13 @@
         <v>1558</v>
       </c>
       <c r="E1559" t="s">
-        <v>2923</v>
+        <v>1013</v>
       </c>
       <c r="F1559" t="s">
-        <v>2924</v>
+        <v>1014</v>
       </c>
       <c r="G1559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1559" t="s">
         <v>4</v>
@@ -57776,13 +57800,13 @@
         <v>1559</v>
       </c>
       <c r="E1560" t="s">
-        <v>991</v>
+        <v>2927</v>
       </c>
       <c r="F1560" t="s">
-        <v>992</v>
+        <v>2928</v>
       </c>
       <c r="G1560" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H1560" t="s">
         <v>4</v>
@@ -57805,13 +57829,13 @@
         <v>1560</v>
       </c>
       <c r="E1561" t="s">
-        <v>2925</v>
+        <v>1005</v>
       </c>
       <c r="F1561" t="s">
-        <v>2926</v>
+        <v>1006</v>
       </c>
       <c r="G1561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1561" t="s">
         <v>4</v>
@@ -57834,13 +57858,13 @@
         <v>1561</v>
       </c>
       <c r="E1562" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="F1562" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="G1562" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1562" t="s">
         <v>4</v>
@@ -57863,13 +57887,13 @@
         <v>1562</v>
       </c>
       <c r="E1563" t="s">
-        <v>2929</v>
+        <v>991</v>
       </c>
       <c r="F1563" t="s">
-        <v>2930</v>
+        <v>992</v>
       </c>
       <c r="G1563" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1563" t="s">
         <v>4</v>
@@ -57892,13 +57916,13 @@
         <v>1563</v>
       </c>
       <c r="E1564" t="s">
-        <v>2763</v>
+        <v>2931</v>
       </c>
       <c r="F1564" t="s">
-        <v>2764</v>
+        <v>2932</v>
       </c>
       <c r="G1564" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1564" t="s">
         <v>4</v>
@@ -57921,10 +57945,10 @@
         <v>1564</v>
       </c>
       <c r="E1565" t="s">
-        <v>707</v>
+        <v>2933</v>
       </c>
       <c r="F1565" t="s">
-        <v>708</v>
+        <v>2934</v>
       </c>
       <c r="G1565" t="n">
         <v>2</v>
@@ -57950,13 +57974,13 @@
         <v>1565</v>
       </c>
       <c r="E1566" t="s">
-        <v>2773</v>
+        <v>2935</v>
       </c>
       <c r="F1566" t="s">
-        <v>2774</v>
+        <v>2936</v>
       </c>
       <c r="G1566" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1566" t="s">
         <v>4</v>
@@ -57979,13 +58003,13 @@
         <v>1566</v>
       </c>
       <c r="E1567" t="s">
-        <v>2931</v>
+        <v>2937</v>
       </c>
       <c r="F1567" t="s">
-        <v>2932</v>
+        <v>2938</v>
       </c>
       <c r="G1567" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1567" t="s">
         <v>4</v>
@@ -58008,13 +58032,13 @@
         <v>1567</v>
       </c>
       <c r="E1568" t="s">
-        <v>2933</v>
+        <v>2763</v>
       </c>
       <c r="F1568" t="s">
-        <v>2934</v>
+        <v>2764</v>
       </c>
       <c r="G1568" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H1568" t="s">
         <v>4</v>
@@ -58037,10 +58061,10 @@
         <v>1568</v>
       </c>
       <c r="E1569" t="s">
-        <v>2935</v>
+        <v>707</v>
       </c>
       <c r="F1569" t="s">
-        <v>2936</v>
+        <v>708</v>
       </c>
       <c r="G1569" t="n">
         <v>2</v>
@@ -58066,13 +58090,13 @@
         <v>1569</v>
       </c>
       <c r="E1570" t="s">
-        <v>2937</v>
+        <v>2771</v>
       </c>
       <c r="F1570" t="s">
-        <v>2938</v>
+        <v>2772</v>
       </c>
       <c r="G1570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1570" t="s">
         <v>4</v>
@@ -58101,7 +58125,7 @@
         <v>2940</v>
       </c>
       <c r="G1571" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1571" t="s">
         <v>4</v>
@@ -58188,7 +58212,7 @@
         <v>2946</v>
       </c>
       <c r="G1574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1574" t="s">
         <v>4</v>
@@ -58217,7 +58241,7 @@
         <v>2948</v>
       </c>
       <c r="G1575" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1575" t="s">
         <v>4</v>
@@ -58246,7 +58270,7 @@
         <v>2950</v>
       </c>
       <c r="G1576" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1576" t="s">
         <v>4</v>
@@ -58304,7 +58328,7 @@
         <v>2954</v>
       </c>
       <c r="G1578" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1578" t="s">
         <v>4</v>
@@ -58333,7 +58357,7 @@
         <v>2956</v>
       </c>
       <c r="G1579" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1579" t="s">
         <v>4</v>
@@ -58362,7 +58386,7 @@
         <v>2958</v>
       </c>
       <c r="G1580" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1580" t="s">
         <v>4</v>
@@ -58391,7 +58415,7 @@
         <v>2960</v>
       </c>
       <c r="G1581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1581" t="s">
         <v>4</v>
@@ -58420,7 +58444,7 @@
         <v>2962</v>
       </c>
       <c r="G1582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1582" t="s">
         <v>4</v>
@@ -58449,7 +58473,7 @@
         <v>2964</v>
       </c>
       <c r="G1583" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1583" t="s">
         <v>4</v>
@@ -58478,7 +58502,7 @@
         <v>2966</v>
       </c>
       <c r="G1584" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1584" t="s">
         <v>4</v>
@@ -58507,7 +58531,7 @@
         <v>2968</v>
       </c>
       <c r="G1585" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1585" t="s">
         <v>4</v>
@@ -58536,7 +58560,7 @@
         <v>2970</v>
       </c>
       <c r="G1586" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1586" t="s">
         <v>4</v>
@@ -58565,7 +58589,7 @@
         <v>2972</v>
       </c>
       <c r="G1587" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1587" t="s">
         <v>4</v>
@@ -58594,7 +58618,7 @@
         <v>2974</v>
       </c>
       <c r="G1588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1588" t="s">
         <v>4</v>
@@ -58652,7 +58676,7 @@
         <v>2978</v>
       </c>
       <c r="G1590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1590" t="s">
         <v>4</v>
@@ -58681,7 +58705,7 @@
         <v>2980</v>
       </c>
       <c r="G1591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1591" t="s">
         <v>4</v>
@@ -58739,7 +58763,7 @@
         <v>2984</v>
       </c>
       <c r="G1593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1593" t="s">
         <v>4</v>
@@ -58768,7 +58792,7 @@
         <v>2986</v>
       </c>
       <c r="G1594" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1594" t="s">
         <v>4</v>
@@ -58826,7 +58850,7 @@
         <v>2990</v>
       </c>
       <c r="G1596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1596" t="s">
         <v>4</v>
@@ -58855,7 +58879,7 @@
         <v>2992</v>
       </c>
       <c r="G1597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1597" t="s">
         <v>4</v>
@@ -58884,7 +58908,7 @@
         <v>2994</v>
       </c>
       <c r="G1598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1598" t="s">
         <v>4</v>
@@ -58942,7 +58966,7 @@
         <v>2998</v>
       </c>
       <c r="G1600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1600" t="s">
         <v>4</v>
@@ -59000,7 +59024,7 @@
         <v>3002</v>
       </c>
       <c r="G1602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1602" t="s">
         <v>4</v>
@@ -59029,7 +59053,7 @@
         <v>3004</v>
       </c>
       <c r="G1603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1603" t="s">
         <v>4</v>
@@ -59087,7 +59111,7 @@
         <v>3008</v>
       </c>
       <c r="G1605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1605" t="s">
         <v>4</v>
@@ -59145,7 +59169,7 @@
         <v>3012</v>
       </c>
       <c r="G1607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1607" t="s">
         <v>4</v>
@@ -59174,7 +59198,7 @@
         <v>3014</v>
       </c>
       <c r="G1608" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1608" t="s">
         <v>4</v>
@@ -59203,7 +59227,7 @@
         <v>3016</v>
       </c>
       <c r="G1609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1609" t="s">
         <v>4</v>
@@ -59232,7 +59256,7 @@
         <v>3018</v>
       </c>
       <c r="G1610" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1610" t="s">
         <v>4</v>
@@ -59261,7 +59285,7 @@
         <v>3020</v>
       </c>
       <c r="G1611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1611" t="s">
         <v>4</v>
@@ -59348,7 +59372,7 @@
         <v>3026</v>
       </c>
       <c r="G1614" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1614" t="s">
         <v>4</v>
@@ -59377,7 +59401,7 @@
         <v>3028</v>
       </c>
       <c r="G1615" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1615" t="s">
         <v>4</v>
@@ -59435,7 +59459,7 @@
         <v>3032</v>
       </c>
       <c r="G1617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1617" t="s">
         <v>4</v>
@@ -59464,7 +59488,7 @@
         <v>3034</v>
       </c>
       <c r="G1618" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H1618" t="s">
         <v>4</v>
@@ -59493,7 +59517,7 @@
         <v>3036</v>
       </c>
       <c r="G1619" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1619" t="s">
         <v>4</v>
@@ -59522,7 +59546,7 @@
         <v>3038</v>
       </c>
       <c r="G1620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1620" t="s">
         <v>4</v>
@@ -59580,7 +59604,7 @@
         <v>3042</v>
       </c>
       <c r="G1622" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1622" t="s">
         <v>4</v>
@@ -59609,7 +59633,7 @@
         <v>3044</v>
       </c>
       <c r="G1623" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1623" t="s">
         <v>4</v>
@@ -59638,7 +59662,7 @@
         <v>3046</v>
       </c>
       <c r="G1624" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1624" t="s">
         <v>4</v>
@@ -59667,7 +59691,7 @@
         <v>3048</v>
       </c>
       <c r="G1625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1625" t="s">
         <v>4</v>
@@ -59719,13 +59743,13 @@
         <v>1626</v>
       </c>
       <c r="E1627" t="s">
-        <v>2123</v>
+        <v>3051</v>
       </c>
       <c r="F1627" t="s">
-        <v>2124</v>
+        <v>3052</v>
       </c>
       <c r="G1627" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1627" t="s">
         <v>4</v>
@@ -59748,13 +59772,13 @@
         <v>1627</v>
       </c>
       <c r="E1628" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="F1628" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="G1628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1628" t="s">
         <v>4</v>
@@ -59777,10 +59801,10 @@
         <v>1628</v>
       </c>
       <c r="E1629" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="F1629" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="G1629" t="n">
         <v>1</v>
@@ -59806,10 +59830,10 @@
         <v>1629</v>
       </c>
       <c r="E1630" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="F1630" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="G1630" t="n">
         <v>1</v>
@@ -59835,10 +59859,10 @@
         <v>1630</v>
       </c>
       <c r="E1631" t="s">
-        <v>3057</v>
+        <v>2123</v>
       </c>
       <c r="F1631" t="s">
-        <v>3058</v>
+        <v>2124</v>
       </c>
       <c r="G1631" t="n">
         <v>1</v>
@@ -59870,7 +59894,7 @@
         <v>3060</v>
       </c>
       <c r="G1632" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1632" t="s">
         <v>4</v>
@@ -59957,7 +59981,7 @@
         <v>3066</v>
       </c>
       <c r="G1635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1635" t="s">
         <v>4</v>
@@ -60015,7 +60039,7 @@
         <v>3070</v>
       </c>
       <c r="G1637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1637" t="s">
         <v>4</v>
@@ -60044,7 +60068,7 @@
         <v>3072</v>
       </c>
       <c r="G1638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1638" t="s">
         <v>4</v>
@@ -60102,7 +60126,7 @@
         <v>3076</v>
       </c>
       <c r="G1640" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1640" t="s">
         <v>4</v>
@@ -60131,7 +60155,7 @@
         <v>3078</v>
       </c>
       <c r="G1641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1641" t="s">
         <v>4</v>
@@ -60160,7 +60184,7 @@
         <v>3080</v>
       </c>
       <c r="G1642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1642" t="s">
         <v>4</v>
@@ -60189,7 +60213,7 @@
         <v>3082</v>
       </c>
       <c r="G1643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1643" t="s">
         <v>4</v>
@@ -60247,7 +60271,7 @@
         <v>3086</v>
       </c>
       <c r="G1645" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1645" t="s">
         <v>4</v>
@@ -60276,7 +60300,7 @@
         <v>3088</v>
       </c>
       <c r="G1646" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1646" t="s">
         <v>4</v>
@@ -60305,7 +60329,7 @@
         <v>3090</v>
       </c>
       <c r="G1647" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1647" t="s">
         <v>4</v>
@@ -60334,7 +60358,7 @@
         <v>3092</v>
       </c>
       <c r="G1648" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1648" t="s">
         <v>4</v>
@@ -60363,7 +60387,7 @@
         <v>3094</v>
       </c>
       <c r="G1649" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1649" t="s">
         <v>4</v>
@@ -60392,7 +60416,7 @@
         <v>3096</v>
       </c>
       <c r="G1650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1650" t="s">
         <v>4</v>
@@ -60421,7 +60445,7 @@
         <v>3098</v>
       </c>
       <c r="G1651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1651" t="s">
         <v>4</v>
@@ -60450,7 +60474,7 @@
         <v>3100</v>
       </c>
       <c r="G1652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1652" t="s">
         <v>4</v>
@@ -60479,7 +60503,7 @@
         <v>3102</v>
       </c>
       <c r="G1653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1653" t="s">
         <v>4</v>
@@ -60566,7 +60590,7 @@
         <v>3108</v>
       </c>
       <c r="G1656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1656" t="s">
         <v>4</v>
@@ -60589,10 +60613,10 @@
         <v>1656</v>
       </c>
       <c r="E1657" t="s">
-        <v>343</v>
+        <v>3109</v>
       </c>
       <c r="F1657" t="s">
-        <v>344</v>
+        <v>3110</v>
       </c>
       <c r="G1657" t="n">
         <v>2</v>
@@ -60618,13 +60642,13 @@
         <v>1657</v>
       </c>
       <c r="E1658" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="F1658" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="G1658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1658" t="s">
         <v>4</v>
@@ -60647,10 +60671,10 @@
         <v>1658</v>
       </c>
       <c r="E1659" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
       <c r="F1659" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="G1659" t="n">
         <v>2</v>
@@ -60676,10 +60700,10 @@
         <v>1659</v>
       </c>
       <c r="E1660" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="F1660" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="G1660" t="n">
         <v>1</v>
@@ -60705,13 +60729,13 @@
         <v>1660</v>
       </c>
       <c r="E1661" t="s">
-        <v>3115</v>
+        <v>343</v>
       </c>
       <c r="F1661" t="s">
-        <v>3116</v>
+        <v>344</v>
       </c>
       <c r="G1661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1661" t="s">
         <v>4</v>
@@ -60740,7 +60764,7 @@
         <v>3118</v>
       </c>
       <c r="G1662" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1662" t="s">
         <v>4</v>
@@ -60827,7 +60851,7 @@
         <v>3124</v>
       </c>
       <c r="G1665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1665" t="s">
         <v>4</v>
@@ -60856,7 +60880,7 @@
         <v>3126</v>
       </c>
       <c r="G1666" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1666" t="s">
         <v>4</v>
@@ -60885,7 +60909,7 @@
         <v>3128</v>
       </c>
       <c r="G1667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1667" t="s">
         <v>4</v>
@@ -60943,7 +60967,7 @@
         <v>3132</v>
       </c>
       <c r="G1669" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1669" t="s">
         <v>4</v>
@@ -61001,7 +61025,7 @@
         <v>3136</v>
       </c>
       <c r="G1671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1671" t="s">
         <v>4</v>
@@ -61030,7 +61054,7 @@
         <v>3138</v>
       </c>
       <c r="G1672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1672" t="s">
         <v>4</v>
@@ -61059,7 +61083,7 @@
         <v>3140</v>
       </c>
       <c r="G1673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1673" t="s">
         <v>4</v>
@@ -61088,7 +61112,7 @@
         <v>3142</v>
       </c>
       <c r="G1674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1674" t="s">
         <v>4</v>
@@ -61175,7 +61199,7 @@
         <v>3148</v>
       </c>
       <c r="G1677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1677" t="s">
         <v>4</v>
@@ -61233,7 +61257,7 @@
         <v>3152</v>
       </c>
       <c r="G1679" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1679" t="s">
         <v>4</v>
@@ -61262,7 +61286,7 @@
         <v>3154</v>
       </c>
       <c r="G1680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1680" t="s">
         <v>4</v>
@@ -61291,7 +61315,7 @@
         <v>3156</v>
       </c>
       <c r="G1681" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1681" t="s">
         <v>4</v>
@@ -61349,7 +61373,7 @@
         <v>3160</v>
       </c>
       <c r="G1683" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1683" t="s">
         <v>4</v>
@@ -61407,7 +61431,7 @@
         <v>3164</v>
       </c>
       <c r="G1685" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H1685" t="s">
         <v>4</v>
@@ -61465,7 +61489,7 @@
         <v>3168</v>
       </c>
       <c r="G1687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1687" t="s">
         <v>4</v>
@@ -61494,7 +61518,7 @@
         <v>3170</v>
       </c>
       <c r="G1688" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1688" t="s">
         <v>4</v>
@@ -61523,7 +61547,7 @@
         <v>3172</v>
       </c>
       <c r="G1689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1689" t="s">
         <v>4</v>
@@ -61552,7 +61576,7 @@
         <v>3174</v>
       </c>
       <c r="G1690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1690" t="s">
         <v>4</v>
@@ -61581,7 +61605,7 @@
         <v>3176</v>
       </c>
       <c r="G1691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1691" t="s">
         <v>4</v>
@@ -61610,7 +61634,7 @@
         <v>3178</v>
       </c>
       <c r="G1692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1692" t="s">
         <v>4</v>
@@ -61639,7 +61663,7 @@
         <v>3180</v>
       </c>
       <c r="G1693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1693" t="s">
         <v>4</v>
@@ -61668,7 +61692,7 @@
         <v>3182</v>
       </c>
       <c r="G1694" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1694" t="s">
         <v>4</v>
@@ -61697,7 +61721,7 @@
         <v>3184</v>
       </c>
       <c r="G1695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1695" t="s">
         <v>4</v>
@@ -61726,7 +61750,7 @@
         <v>3186</v>
       </c>
       <c r="G1696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1696" t="s">
         <v>4</v>
@@ -61778,13 +61802,13 @@
         <v>1697</v>
       </c>
       <c r="E1698" t="s">
-        <v>241</v>
+        <v>3189</v>
       </c>
       <c r="F1698" t="s">
-        <v>242</v>
+        <v>3190</v>
       </c>
       <c r="G1698" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1698" t="s">
         <v>4</v>
@@ -61807,13 +61831,13 @@
         <v>1698</v>
       </c>
       <c r="E1699" t="s">
-        <v>295</v>
+        <v>3191</v>
       </c>
       <c r="F1699" t="s">
-        <v>296</v>
+        <v>3192</v>
       </c>
       <c r="G1699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1699" t="s">
         <v>4</v>
@@ -61836,10 +61860,10 @@
         <v>1699</v>
       </c>
       <c r="E1700" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="F1700" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="G1700" t="n">
         <v>1</v>
@@ -61865,13 +61889,13 @@
         <v>1700</v>
       </c>
       <c r="E1701" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
       <c r="F1701" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="G1701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1701" t="s">
         <v>4</v>
@@ -61894,13 +61918,13 @@
         <v>1701</v>
       </c>
       <c r="E1702" t="s">
-        <v>1251</v>
+        <v>241</v>
       </c>
       <c r="F1702" t="s">
-        <v>1252</v>
+        <v>242</v>
       </c>
       <c r="G1702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1702" t="s">
         <v>4</v>
@@ -61923,13 +61947,13 @@
         <v>1702</v>
       </c>
       <c r="E1703" t="s">
-        <v>3193</v>
+        <v>295</v>
       </c>
       <c r="F1703" t="s">
-        <v>3194</v>
+        <v>296</v>
       </c>
       <c r="G1703" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H1703" t="s">
         <v>4</v>
@@ -61952,13 +61976,13 @@
         <v>1703</v>
       </c>
       <c r="E1704" t="s">
-        <v>3035</v>
+        <v>3197</v>
       </c>
       <c r="F1704" t="s">
-        <v>3036</v>
+        <v>3198</v>
       </c>
       <c r="G1704" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H1704" t="s">
         <v>4</v>
@@ -61981,13 +62005,13 @@
         <v>1704</v>
       </c>
       <c r="E1705" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="F1705" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="G1705" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1705" t="s">
         <v>4</v>
@@ -62010,13 +62034,13 @@
         <v>1705</v>
       </c>
       <c r="E1706" t="s">
-        <v>3197</v>
+        <v>1251</v>
       </c>
       <c r="F1706" t="s">
-        <v>3198</v>
+        <v>1252</v>
       </c>
       <c r="G1706" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1706" t="s">
         <v>4</v>
@@ -62039,13 +62063,13 @@
         <v>1706</v>
       </c>
       <c r="E1707" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
       <c r="F1707" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="G1707" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H1707" t="s">
         <v>4</v>
@@ -62068,13 +62092,13 @@
         <v>1707</v>
       </c>
       <c r="E1708" t="s">
-        <v>3201</v>
+        <v>3043</v>
       </c>
       <c r="F1708" t="s">
-        <v>3202</v>
+        <v>3044</v>
       </c>
       <c r="G1708" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H1708" t="s">
         <v>4</v>
@@ -62103,7 +62127,7 @@
         <v>3204</v>
       </c>
       <c r="G1709" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1709" t="s">
         <v>4</v>
@@ -62132,7 +62156,7 @@
         <v>3206</v>
       </c>
       <c r="G1710" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1710" t="s">
         <v>4</v>
@@ -62161,7 +62185,7 @@
         <v>3208</v>
       </c>
       <c r="G1711" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1711" t="s">
         <v>4</v>
@@ -62190,7 +62214,7 @@
         <v>3210</v>
       </c>
       <c r="G1712" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1712" t="s">
         <v>4</v>
@@ -62277,7 +62301,7 @@
         <v>3216</v>
       </c>
       <c r="G1715" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1715" t="s">
         <v>4</v>
@@ -62306,7 +62330,7 @@
         <v>3218</v>
       </c>
       <c r="G1716" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1716" t="s">
         <v>4</v>
@@ -62335,7 +62359,7 @@
         <v>3220</v>
       </c>
       <c r="G1717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1717" t="s">
         <v>4</v>
@@ -62364,7 +62388,7 @@
         <v>3222</v>
       </c>
       <c r="G1718" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1718" t="s">
         <v>4</v>
@@ -62393,7 +62417,7 @@
         <v>3224</v>
       </c>
       <c r="G1719" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H1719" t="s">
         <v>4</v>
@@ -62451,7 +62475,7 @@
         <v>3228</v>
       </c>
       <c r="G1721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1721" t="s">
         <v>4</v>
@@ -62509,7 +62533,7 @@
         <v>3232</v>
       </c>
       <c r="G1723" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H1723" t="s">
         <v>4</v>
@@ -62770,7 +62794,7 @@
         <v>3250</v>
       </c>
       <c r="G1732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1732" t="s">
         <v>4</v>
@@ -62886,7 +62910,7 @@
         <v>3258</v>
       </c>
       <c r="G1736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1736" t="s">
         <v>4</v>
@@ -63263,7 +63287,7 @@
         <v>3284</v>
       </c>
       <c r="G1749" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1749" t="s">
         <v>4</v>
@@ -63379,7 +63403,7 @@
         <v>3292</v>
       </c>
       <c r="G1753" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1753" t="s">
         <v>4</v>
@@ -63431,10 +63455,10 @@
         <v>1754</v>
       </c>
       <c r="E1755" t="s">
-        <v>2949</v>
+        <v>3295</v>
       </c>
       <c r="F1755" t="s">
-        <v>2950</v>
+        <v>3296</v>
       </c>
       <c r="G1755" t="n">
         <v>1</v>
@@ -63460,10 +63484,10 @@
         <v>1755</v>
       </c>
       <c r="E1756" t="s">
-        <v>3181</v>
+        <v>3297</v>
       </c>
       <c r="F1756" t="s">
-        <v>3182</v>
+        <v>3298</v>
       </c>
       <c r="G1756" t="n">
         <v>1</v>
@@ -63489,10 +63513,10 @@
         <v>1756</v>
       </c>
       <c r="E1757" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="F1757" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="G1757" t="n">
         <v>1</v>
@@ -63518,10 +63542,10 @@
         <v>1757</v>
       </c>
       <c r="E1758" t="s">
-        <v>3297</v>
+        <v>3301</v>
       </c>
       <c r="F1758" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
       <c r="G1758" t="n">
         <v>1</v>
@@ -63547,10 +63571,10 @@
         <v>1758</v>
       </c>
       <c r="E1759" t="s">
-        <v>3299</v>
+        <v>2957</v>
       </c>
       <c r="F1759" t="s">
-        <v>3300</v>
+        <v>2958</v>
       </c>
       <c r="G1759" t="n">
         <v>1</v>
@@ -63576,10 +63600,10 @@
         <v>1759</v>
       </c>
       <c r="E1760" t="s">
-        <v>3301</v>
+        <v>3189</v>
       </c>
       <c r="F1760" t="s">
-        <v>3302</v>
+        <v>3190</v>
       </c>
       <c r="G1760" t="n">
         <v>1</v>
@@ -63727,7 +63751,7 @@
         <v>3312</v>
       </c>
       <c r="G1765" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1765" t="s">
         <v>4</v>
@@ -63843,7 +63867,7 @@
         <v>3320</v>
       </c>
       <c r="G1769" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1769" t="s">
         <v>4</v>
@@ -63988,7 +64012,7 @@
         <v>3330</v>
       </c>
       <c r="G1774" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1774" t="s">
         <v>4</v>
@@ -64104,7 +64128,7 @@
         <v>3338</v>
       </c>
       <c r="G1778" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1778" t="s">
         <v>4</v>
@@ -64162,7 +64186,7 @@
         <v>3342</v>
       </c>
       <c r="G1780" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1780" t="s">
         <v>4</v>
@@ -64278,7 +64302,7 @@
         <v>3350</v>
       </c>
       <c r="G1784" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1784" t="s">
         <v>4</v>
@@ -64365,7 +64389,7 @@
         <v>3356</v>
       </c>
       <c r="G1787" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1787" t="s">
         <v>4</v>
@@ -64388,13 +64412,13 @@
         <v>1787</v>
       </c>
       <c r="E1788" t="s">
-        <v>2223</v>
+        <v>3357</v>
       </c>
       <c r="F1788" t="s">
-        <v>2224</v>
+        <v>3358</v>
       </c>
       <c r="G1788" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H1788" t="s">
         <v>4</v>
@@ -64417,10 +64441,10 @@
         <v>1788</v>
       </c>
       <c r="E1789" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="F1789" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="G1789" t="n">
         <v>1</v>
@@ -64446,10 +64470,10 @@
         <v>1789</v>
       </c>
       <c r="E1790" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="F1790" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="G1790" t="n">
         <v>1</v>
@@ -64475,13 +64499,13 @@
         <v>1790</v>
       </c>
       <c r="E1791" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="F1791" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="G1791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1791" t="s">
         <v>4</v>
@@ -64504,13 +64528,13 @@
         <v>1791</v>
       </c>
       <c r="E1792" t="s">
-        <v>3363</v>
+        <v>2223</v>
       </c>
       <c r="F1792" t="s">
-        <v>3364</v>
+        <v>2224</v>
       </c>
       <c r="G1792" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H1792" t="s">
         <v>4</v>
@@ -64562,10 +64586,10 @@
         <v>1793</v>
       </c>
       <c r="E1794" t="s">
-        <v>1365</v>
+        <v>3367</v>
       </c>
       <c r="F1794" t="s">
-        <v>1366</v>
+        <v>3368</v>
       </c>
       <c r="G1794" t="n">
         <v>1</v>
@@ -64591,10 +64615,10 @@
         <v>1794</v>
       </c>
       <c r="E1795" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="F1795" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="G1795" t="n">
         <v>1</v>
@@ -64620,10 +64644,10 @@
         <v>1795</v>
       </c>
       <c r="E1796" t="s">
-        <v>1255</v>
+        <v>3371</v>
       </c>
       <c r="F1796" t="s">
-        <v>1256</v>
+        <v>3372</v>
       </c>
       <c r="G1796" t="n">
         <v>1</v>
@@ -64649,10 +64673,10 @@
         <v>1796</v>
       </c>
       <c r="E1797" t="s">
-        <v>3369</v>
+        <v>3373</v>
       </c>
       <c r="F1797" t="s">
-        <v>3370</v>
+        <v>3374</v>
       </c>
       <c r="G1797" t="n">
         <v>1</v>
@@ -64678,10 +64702,10 @@
         <v>1797</v>
       </c>
       <c r="E1798" t="s">
-        <v>3371</v>
+        <v>1365</v>
       </c>
       <c r="F1798" t="s">
-        <v>3372</v>
+        <v>1366</v>
       </c>
       <c r="G1798" t="n">
         <v>1</v>
@@ -64707,10 +64731,10 @@
         <v>1798</v>
       </c>
       <c r="E1799" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="F1799" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="G1799" t="n">
         <v>1</v>
@@ -64736,10 +64760,10 @@
         <v>1799</v>
       </c>
       <c r="E1800" t="s">
-        <v>3375</v>
+        <v>1255</v>
       </c>
       <c r="F1800" t="s">
-        <v>3376</v>
+        <v>1256</v>
       </c>
       <c r="G1800" t="n">
         <v>1</v>
@@ -64939,10 +64963,10 @@
         <v>1806</v>
       </c>
       <c r="E1807" t="s">
-        <v>1097</v>
+        <v>3389</v>
       </c>
       <c r="F1807" t="s">
-        <v>1098</v>
+        <v>3390</v>
       </c>
       <c r="G1807" t="n">
         <v>1</v>
@@ -64968,10 +64992,10 @@
         <v>1807</v>
       </c>
       <c r="E1808" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="F1808" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="G1808" t="n">
         <v>1</v>
@@ -64997,10 +65021,10 @@
         <v>1808</v>
       </c>
       <c r="E1809" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="F1809" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="G1809" t="n">
         <v>1</v>
@@ -65026,10 +65050,10 @@
         <v>1809</v>
       </c>
       <c r="E1810" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="F1810" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="G1810" t="n">
         <v>1</v>
@@ -65055,10 +65079,10 @@
         <v>1810</v>
       </c>
       <c r="E1811" t="s">
-        <v>3395</v>
+        <v>1097</v>
       </c>
       <c r="F1811" t="s">
-        <v>3396</v>
+        <v>1098</v>
       </c>
       <c r="G1811" t="n">
         <v>1</v>
@@ -65316,10 +65340,10 @@
         <v>1819</v>
       </c>
       <c r="E1820" t="s">
-        <v>607</v>
+        <v>3413</v>
       </c>
       <c r="F1820" t="s">
-        <v>608</v>
+        <v>3414</v>
       </c>
       <c r="G1820" t="n">
         <v>1</v>
@@ -65345,10 +65369,10 @@
         <v>1820</v>
       </c>
       <c r="E1821" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="F1821" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="G1821" t="n">
         <v>1</v>
@@ -65374,10 +65398,10 @@
         <v>1821</v>
       </c>
       <c r="E1822" t="s">
-        <v>615</v>
+        <v>3417</v>
       </c>
       <c r="F1822" t="s">
-        <v>616</v>
+        <v>3418</v>
       </c>
       <c r="G1822" t="n">
         <v>1</v>
@@ -65403,10 +65427,10 @@
         <v>1822</v>
       </c>
       <c r="E1823" t="s">
-        <v>3415</v>
+        <v>3419</v>
       </c>
       <c r="F1823" t="s">
-        <v>3416</v>
+        <v>3420</v>
       </c>
       <c r="G1823" t="n">
         <v>1</v>
@@ -65432,10 +65456,10 @@
         <v>1823</v>
       </c>
       <c r="E1824" t="s">
-        <v>3417</v>
+        <v>607</v>
       </c>
       <c r="F1824" t="s">
-        <v>3418</v>
+        <v>608</v>
       </c>
       <c r="G1824" t="n">
         <v>1</v>
@@ -65461,10 +65485,10 @@
         <v>1824</v>
       </c>
       <c r="E1825" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
       <c r="F1825" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="G1825" t="n">
         <v>1</v>
@@ -65490,10 +65514,10 @@
         <v>1825</v>
       </c>
       <c r="E1826" t="s">
-        <v>3421</v>
+        <v>615</v>
       </c>
       <c r="F1826" t="s">
-        <v>3422</v>
+        <v>616</v>
       </c>
       <c r="G1826" t="n">
         <v>1</v>
@@ -65519,10 +65543,10 @@
         <v>1826</v>
       </c>
       <c r="E1827" t="s">
-        <v>631</v>
+        <v>3423</v>
       </c>
       <c r="F1827" t="s">
-        <v>632</v>
+        <v>3424</v>
       </c>
       <c r="G1827" t="n">
         <v>1</v>
@@ -65548,10 +65572,10 @@
         <v>1827</v>
       </c>
       <c r="E1828" t="s">
-        <v>633</v>
+        <v>3425</v>
       </c>
       <c r="F1828" t="s">
-        <v>634</v>
+        <v>3426</v>
       </c>
       <c r="G1828" t="n">
         <v>1</v>
@@ -65577,10 +65601,10 @@
         <v>1828</v>
       </c>
       <c r="E1829" t="s">
-        <v>3423</v>
+        <v>3427</v>
       </c>
       <c r="F1829" t="s">
-        <v>3424</v>
+        <v>3428</v>
       </c>
       <c r="G1829" t="n">
         <v>1</v>
@@ -65606,10 +65630,10 @@
         <v>1829</v>
       </c>
       <c r="E1830" t="s">
-        <v>1237</v>
+        <v>3429</v>
       </c>
       <c r="F1830" t="s">
-        <v>1238</v>
+        <v>3430</v>
       </c>
       <c r="G1830" t="n">
         <v>1</v>
@@ -65635,10 +65659,10 @@
         <v>1830</v>
       </c>
       <c r="E1831" t="s">
-        <v>3425</v>
+        <v>631</v>
       </c>
       <c r="F1831" t="s">
-        <v>3426</v>
+        <v>632</v>
       </c>
       <c r="G1831" t="n">
         <v>1</v>
@@ -65664,10 +65688,10 @@
         <v>1831</v>
       </c>
       <c r="E1832" t="s">
-        <v>3427</v>
+        <v>633</v>
       </c>
       <c r="F1832" t="s">
-        <v>3428</v>
+        <v>634</v>
       </c>
       <c r="G1832" t="n">
         <v>1</v>
@@ -65693,10 +65717,10 @@
         <v>1832</v>
       </c>
       <c r="E1833" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="F1833" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="G1833" t="n">
         <v>1</v>
@@ -65722,10 +65746,10 @@
         <v>1833</v>
       </c>
       <c r="E1834" t="s">
-        <v>3431</v>
+        <v>1237</v>
       </c>
       <c r="F1834" t="s">
-        <v>3432</v>
+        <v>1238</v>
       </c>
       <c r="G1834" t="n">
         <v>1</v>
@@ -66331,10 +66355,10 @@
         <v>1854</v>
       </c>
       <c r="E1855" t="s">
-        <v>1099</v>
+        <v>3473</v>
       </c>
       <c r="F1855" t="s">
-        <v>1100</v>
+        <v>3474</v>
       </c>
       <c r="G1855" t="n">
         <v>1</v>
@@ -66360,10 +66384,10 @@
         <v>1855</v>
       </c>
       <c r="E1856" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="F1856" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="G1856" t="n">
         <v>1</v>
@@ -66389,13 +66413,13 @@
         <v>1856</v>
       </c>
       <c r="E1857" t="s">
-        <v>149</v>
+        <v>3477</v>
       </c>
       <c r="F1857" t="s">
-        <v>150</v>
+        <v>3478</v>
       </c>
       <c r="G1857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1857" t="s">
         <v>4</v>
@@ -66418,13 +66442,13 @@
         <v>1857</v>
       </c>
       <c r="E1858" t="s">
-        <v>3475</v>
+        <v>3479</v>
       </c>
       <c r="F1858" t="s">
-        <v>3476</v>
+        <v>3480</v>
       </c>
       <c r="G1858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1858" t="s">
         <v>4</v>
@@ -66447,13 +66471,13 @@
         <v>1858</v>
       </c>
       <c r="E1859" t="s">
-        <v>3477</v>
+        <v>1099</v>
       </c>
       <c r="F1859" t="s">
-        <v>3478</v>
+        <v>1100</v>
       </c>
       <c r="G1859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1859" t="s">
         <v>4</v>
@@ -66476,10 +66500,10 @@
         <v>1859</v>
       </c>
       <c r="E1860" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="F1860" t="s">
-        <v>3480</v>
+        <v>3482</v>
       </c>
       <c r="G1860" t="n">
         <v>1</v>
@@ -66505,13 +66529,13 @@
         <v>1860</v>
       </c>
       <c r="E1861" t="s">
-        <v>3481</v>
+        <v>149</v>
       </c>
       <c r="F1861" t="s">
-        <v>3482</v>
+        <v>150</v>
       </c>
       <c r="G1861" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1861" t="s">
         <v>4</v>
@@ -66540,7 +66564,7 @@
         <v>3484</v>
       </c>
       <c r="G1862" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1862" t="s">
         <v>4</v>
@@ -66569,7 +66593,7 @@
         <v>3486</v>
       </c>
       <c r="G1863" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1863" t="s">
         <v>4</v>
@@ -66679,10 +66703,10 @@
         <v>1866</v>
       </c>
       <c r="E1867" t="s">
-        <v>1043</v>
+        <v>3493</v>
       </c>
       <c r="F1867" t="s">
-        <v>1044</v>
+        <v>3494</v>
       </c>
       <c r="G1867" t="n">
         <v>1</v>
@@ -66708,10 +66732,10 @@
         <v>1867</v>
       </c>
       <c r="E1868" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="F1868" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="G1868" t="n">
         <v>1</v>
@@ -66737,10 +66761,10 @@
         <v>1868</v>
       </c>
       <c r="E1869" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="F1869" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="G1869" t="n">
         <v>1</v>
@@ -66766,10 +66790,10 @@
         <v>1869</v>
       </c>
       <c r="E1870" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="F1870" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="G1870" t="n">
         <v>1</v>
@@ -66795,10 +66819,10 @@
         <v>1870</v>
       </c>
       <c r="E1871" t="s">
-        <v>3499</v>
+        <v>1043</v>
       </c>
       <c r="F1871" t="s">
-        <v>3500</v>
+        <v>1044</v>
       </c>
       <c r="G1871" t="n">
         <v>1</v>
@@ -67491,10 +67515,10 @@
         <v>1894</v>
       </c>
       <c r="E1895" t="s">
-        <v>309</v>
+        <v>3547</v>
       </c>
       <c r="F1895" t="s">
-        <v>310</v>
+        <v>3548</v>
       </c>
       <c r="G1895" t="n">
         <v>1</v>
@@ -67520,10 +67544,10 @@
         <v>1895</v>
       </c>
       <c r="E1896" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="F1896" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="G1896" t="n">
         <v>1</v>
@@ -67549,10 +67573,10 @@
         <v>1896</v>
       </c>
       <c r="E1897" t="s">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="F1897" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="G1897" t="n">
         <v>1</v>
@@ -67578,13 +67602,13 @@
         <v>1897</v>
       </c>
       <c r="E1898" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
       <c r="F1898" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="G1898" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1898" t="s">
         <v>4</v>
@@ -67607,10 +67631,10 @@
         <v>1898</v>
       </c>
       <c r="E1899" t="s">
-        <v>3553</v>
+        <v>309</v>
       </c>
       <c r="F1899" t="s">
-        <v>3554</v>
+        <v>310</v>
       </c>
       <c r="G1899" t="n">
         <v>1</v>
@@ -67700,7 +67724,7 @@
         <v>3560</v>
       </c>
       <c r="G1902" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1902" t="s">
         <v>4</v>
@@ -67723,10 +67747,10 @@
         <v>1902</v>
       </c>
       <c r="E1903" t="s">
-        <v>693</v>
+        <v>3561</v>
       </c>
       <c r="F1903" t="s">
-        <v>694</v>
+        <v>3562</v>
       </c>
       <c r="G1903" t="n">
         <v>1</v>
@@ -67752,10 +67776,10 @@
         <v>1903</v>
       </c>
       <c r="E1904" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="F1904" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="G1904" t="n">
         <v>1</v>
@@ -67781,10 +67805,10 @@
         <v>1904</v>
       </c>
       <c r="E1905" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="F1905" t="s">
-        <v>3564</v>
+        <v>3566</v>
       </c>
       <c r="G1905" t="n">
         <v>1</v>
@@ -67810,10 +67834,10 @@
         <v>1905</v>
       </c>
       <c r="E1906" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="F1906" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
       <c r="G1906" t="n">
         <v>1</v>
@@ -67839,10 +67863,10 @@
         <v>1906</v>
       </c>
       <c r="E1907" t="s">
-        <v>3567</v>
+        <v>693</v>
       </c>
       <c r="F1907" t="s">
-        <v>3568</v>
+        <v>694</v>
       </c>
       <c r="G1907" t="n">
         <v>1</v>
@@ -67932,7 +67956,7 @@
         <v>3574</v>
       </c>
       <c r="G1910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1910" t="s">
         <v>4</v>
@@ -67955,10 +67979,10 @@
         <v>1910</v>
       </c>
       <c r="E1911" t="s">
-        <v>1299</v>
+        <v>3575</v>
       </c>
       <c r="F1911" t="s">
-        <v>1300</v>
+        <v>3576</v>
       </c>
       <c r="G1911" t="n">
         <v>1</v>
@@ -67984,10 +68008,10 @@
         <v>1911</v>
       </c>
       <c r="E1912" t="s">
-        <v>3575</v>
+        <v>3577</v>
       </c>
       <c r="F1912" t="s">
-        <v>3576</v>
+        <v>3578</v>
       </c>
       <c r="G1912" t="n">
         <v>1</v>
@@ -68013,13 +68037,13 @@
         <v>1912</v>
       </c>
       <c r="E1913" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="F1913" t="s">
-        <v>3578</v>
+        <v>3580</v>
       </c>
       <c r="G1913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1913" t="s">
         <v>4</v>
@@ -68042,13 +68066,13 @@
         <v>1913</v>
       </c>
       <c r="E1914" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="F1914" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="G1914" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1914" t="s">
         <v>4</v>
@@ -68071,10 +68095,10 @@
         <v>1914</v>
       </c>
       <c r="E1915" t="s">
-        <v>3581</v>
+        <v>1299</v>
       </c>
       <c r="F1915" t="s">
-        <v>3582</v>
+        <v>1300</v>
       </c>
       <c r="G1915" t="n">
         <v>1</v>
@@ -68135,7 +68159,7 @@
         <v>3586</v>
       </c>
       <c r="G1917" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1917" t="s">
         <v>4</v>
@@ -68187,10 +68211,10 @@
         <v>1918</v>
       </c>
       <c r="E1919" t="s">
-        <v>1285</v>
+        <v>3589</v>
       </c>
       <c r="F1919" t="s">
-        <v>1286</v>
+        <v>3590</v>
       </c>
       <c r="G1919" t="n">
         <v>1</v>
@@ -68216,10 +68240,10 @@
         <v>1919</v>
       </c>
       <c r="E1920" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="F1920" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
       <c r="G1920" t="n">
         <v>1</v>
@@ -68245,10 +68269,10 @@
         <v>1920</v>
       </c>
       <c r="E1921" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="F1921" t="s">
-        <v>3592</v>
+        <v>3594</v>
       </c>
       <c r="G1921" t="n">
         <v>1</v>
@@ -68274,10 +68298,10 @@
         <v>1921</v>
       </c>
       <c r="E1922" t="s">
-        <v>3593</v>
+        <v>3595</v>
       </c>
       <c r="F1922" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="G1922" t="n">
         <v>1</v>
@@ -68303,10 +68327,10 @@
         <v>1922</v>
       </c>
       <c r="E1923" t="s">
-        <v>3595</v>
+        <v>1285</v>
       </c>
       <c r="F1923" t="s">
-        <v>3596</v>
+        <v>1286</v>
       </c>
       <c r="G1923" t="n">
         <v>1</v>
@@ -68976,7 +69000,7 @@
         <v>3642</v>
       </c>
       <c r="G1946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1946" t="s">
         <v>4</v>
@@ -69005,7 +69029,7 @@
         <v>3644</v>
       </c>
       <c r="G1947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1947" t="s">
         <v>4</v>
@@ -69034,7 +69058,7 @@
         <v>3646</v>
       </c>
       <c r="G1948" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1948" t="s">
         <v>4</v>
@@ -69063,7 +69087,7 @@
         <v>3648</v>
       </c>
       <c r="G1949" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1949" t="s">
         <v>4</v>
@@ -69092,7 +69116,7 @@
         <v>3650</v>
       </c>
       <c r="G1950" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1950" t="s">
         <v>4</v>
@@ -69179,7 +69203,7 @@
         <v>3656</v>
       </c>
       <c r="G1953" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1953" t="s">
         <v>4</v>
@@ -69208,7 +69232,7 @@
         <v>3658</v>
       </c>
       <c r="G1954" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1954" t="s">
         <v>4</v>
@@ -69266,7 +69290,7 @@
         <v>3662</v>
       </c>
       <c r="G1956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1956" t="s">
         <v>4</v>
@@ -69353,7 +69377,7 @@
         <v>3668</v>
       </c>
       <c r="G1959" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1959" t="s">
         <v>4</v>
@@ -69382,7 +69406,7 @@
         <v>3670</v>
       </c>
       <c r="G1960" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1960" t="s">
         <v>4</v>
@@ -69440,7 +69464,7 @@
         <v>3674</v>
       </c>
       <c r="G1962" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1962" t="s">
         <v>4</v>
@@ -69527,7 +69551,7 @@
         <v>3680</v>
       </c>
       <c r="G1965" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1965" t="s">
         <v>4</v>
@@ -69614,7 +69638,7 @@
         <v>3686</v>
       </c>
       <c r="G1968" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1968" t="s">
         <v>4</v>
@@ -69904,7 +69928,7 @@
         <v>3706</v>
       </c>
       <c r="G1978" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1978" t="s">
         <v>4</v>
@@ -70020,7 +70044,7 @@
         <v>3714</v>
       </c>
       <c r="G1982" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1982" t="s">
         <v>4</v>
@@ -70194,7 +70218,7 @@
         <v>3726</v>
       </c>
       <c r="G1988" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1988" t="s">
         <v>4</v>
@@ -70310,7 +70334,7 @@
         <v>3734</v>
       </c>
       <c r="G1992" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1992" t="s">
         <v>4</v>
@@ -70890,7 +70914,7 @@
         <v>3774</v>
       </c>
       <c r="G2012" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2012" t="s">
         <v>4</v>
@@ -71006,7 +71030,7 @@
         <v>3782</v>
       </c>
       <c r="G2016" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2016" t="s">
         <v>4</v>
@@ -71093,7 +71117,7 @@
         <v>3788</v>
       </c>
       <c r="G2019" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2019" t="s">
         <v>4</v>
@@ -71209,7 +71233,7 @@
         <v>3796</v>
       </c>
       <c r="G2023" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2023" t="s">
         <v>4</v>
@@ -71354,7 +71378,7 @@
         <v>3806</v>
       </c>
       <c r="G2028" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2028" t="s">
         <v>4</v>
@@ -71412,7 +71436,7 @@
         <v>3810</v>
       </c>
       <c r="G2030" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2030" t="s">
         <v>4</v>
@@ -71470,7 +71494,7 @@
         <v>3814</v>
       </c>
       <c r="G2032" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2032" t="s">
         <v>4</v>
@@ -71528,7 +71552,7 @@
         <v>3818</v>
       </c>
       <c r="G2034" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2034" t="s">
         <v>4</v>
@@ -71580,10 +71604,10 @@
         <v>2035</v>
       </c>
       <c r="E2036" t="s">
-        <v>1103</v>
+        <v>3821</v>
       </c>
       <c r="F2036" t="s">
-        <v>1104</v>
+        <v>3822</v>
       </c>
       <c r="G2036" t="n">
         <v>1</v>
@@ -71609,10 +71633,10 @@
         <v>2036</v>
       </c>
       <c r="E2037" t="s">
-        <v>3821</v>
+        <v>3823</v>
       </c>
       <c r="F2037" t="s">
-        <v>3822</v>
+        <v>3824</v>
       </c>
       <c r="G2037" t="n">
         <v>1</v>
@@ -71638,10 +71662,10 @@
         <v>2037</v>
       </c>
       <c r="E2038" t="s">
-        <v>235</v>
+        <v>3825</v>
       </c>
       <c r="F2038" t="s">
-        <v>236</v>
+        <v>3826</v>
       </c>
       <c r="G2038" t="n">
         <v>1</v>
@@ -71667,10 +71691,10 @@
         <v>2038</v>
       </c>
       <c r="E2039" t="s">
-        <v>3823</v>
+        <v>3827</v>
       </c>
       <c r="F2039" t="s">
-        <v>3824</v>
+        <v>3828</v>
       </c>
       <c r="G2039" t="n">
         <v>1</v>
@@ -71696,10 +71720,10 @@
         <v>2039</v>
       </c>
       <c r="E2040" t="s">
-        <v>3825</v>
+        <v>1103</v>
       </c>
       <c r="F2040" t="s">
-        <v>3826</v>
+        <v>1104</v>
       </c>
       <c r="G2040" t="n">
         <v>1</v>
@@ -71725,10 +71749,10 @@
         <v>2040</v>
       </c>
       <c r="E2041" t="s">
-        <v>3827</v>
+        <v>3829</v>
       </c>
       <c r="F2041" t="s">
-        <v>3828</v>
+        <v>3830</v>
       </c>
       <c r="G2041" t="n">
         <v>1</v>
@@ -71754,10 +71778,10 @@
         <v>2041</v>
       </c>
       <c r="E2042" t="s">
-        <v>3829</v>
+        <v>235</v>
       </c>
       <c r="F2042" t="s">
-        <v>3830</v>
+        <v>236</v>
       </c>
       <c r="G2042" t="n">
         <v>1</v>
@@ -72189,13 +72213,13 @@
         <v>2056</v>
       </c>
       <c r="E2057" t="s">
-        <v>2925</v>
+        <v>3859</v>
       </c>
       <c r="F2057" t="s">
-        <v>2926</v>
+        <v>3860</v>
       </c>
       <c r="G2057" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2057" t="s">
         <v>4</v>
@@ -72218,10 +72242,10 @@
         <v>2057</v>
       </c>
       <c r="E2058" t="s">
-        <v>3859</v>
+        <v>3861</v>
       </c>
       <c r="F2058" t="s">
-        <v>3860</v>
+        <v>3862</v>
       </c>
       <c r="G2058" t="n">
         <v>1</v>
@@ -72247,10 +72271,10 @@
         <v>2058</v>
       </c>
       <c r="E2059" t="s">
-        <v>3861</v>
+        <v>3863</v>
       </c>
       <c r="F2059" t="s">
-        <v>3862</v>
+        <v>3864</v>
       </c>
       <c r="G2059" t="n">
         <v>1</v>
@@ -72276,10 +72300,10 @@
         <v>2059</v>
       </c>
       <c r="E2060" t="s">
-        <v>3863</v>
+        <v>3865</v>
       </c>
       <c r="F2060" t="s">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="G2060" t="n">
         <v>1</v>
@@ -72305,13 +72329,13 @@
         <v>2060</v>
       </c>
       <c r="E2061" t="s">
-        <v>3865</v>
+        <v>2931</v>
       </c>
       <c r="F2061" t="s">
-        <v>3866</v>
+        <v>2932</v>
       </c>
       <c r="G2061" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2061" t="s">
         <v>4</v>
@@ -73320,10 +73344,10 @@
         <v>2095</v>
       </c>
       <c r="E2096" t="s">
-        <v>2067</v>
+        <v>3935</v>
       </c>
       <c r="F2096" t="s">
-        <v>2068</v>
+        <v>3936</v>
       </c>
       <c r="G2096" t="n">
         <v>1</v>
@@ -73349,10 +73373,10 @@
         <v>2096</v>
       </c>
       <c r="E2097" t="s">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="F2097" t="s">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="G2097" t="n">
         <v>1</v>
@@ -73378,10 +73402,10 @@
         <v>2097</v>
       </c>
       <c r="E2098" t="s">
-        <v>2063</v>
+        <v>3939</v>
       </c>
       <c r="F2098" t="s">
-        <v>2064</v>
+        <v>3940</v>
       </c>
       <c r="G2098" t="n">
         <v>1</v>
@@ -73407,10 +73431,10 @@
         <v>2098</v>
       </c>
       <c r="E2099" t="s">
-        <v>3937</v>
+        <v>3941</v>
       </c>
       <c r="F2099" t="s">
-        <v>3938</v>
+        <v>3942</v>
       </c>
       <c r="G2099" t="n">
         <v>1</v>
@@ -73436,10 +73460,10 @@
         <v>2099</v>
       </c>
       <c r="E2100" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="F2100" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="G2100" t="n">
         <v>1</v>
@@ -73465,10 +73489,10 @@
         <v>2100</v>
       </c>
       <c r="E2101" t="s">
-        <v>3939</v>
+        <v>3943</v>
       </c>
       <c r="F2101" t="s">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="G2101" t="n">
         <v>1</v>
@@ -73494,10 +73518,10 @@
         <v>2101</v>
       </c>
       <c r="E2102" t="s">
-        <v>3941</v>
+        <v>2063</v>
       </c>
       <c r="F2102" t="s">
-        <v>3942</v>
+        <v>2064</v>
       </c>
       <c r="G2102" t="n">
         <v>1</v>
@@ -73523,10 +73547,10 @@
         <v>2102</v>
       </c>
       <c r="E2103" t="s">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="F2103" t="s">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="G2103" t="n">
         <v>1</v>
@@ -73552,10 +73576,10 @@
         <v>2103</v>
       </c>
       <c r="E2104" t="s">
-        <v>3945</v>
+        <v>2065</v>
       </c>
       <c r="F2104" t="s">
-        <v>3946</v>
+        <v>2066</v>
       </c>
       <c r="G2104" t="n">
         <v>1</v>
@@ -74312,7 +74336,7 @@
         <v>3998</v>
       </c>
       <c r="G2130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2130" t="s">
         <v>4</v>
@@ -74341,7 +74365,7 @@
         <v>4000</v>
       </c>
       <c r="G2131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2131" t="s">
         <v>4</v>
@@ -74370,7 +74394,7 @@
         <v>4002</v>
       </c>
       <c r="G2132" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H2132" t="s">
         <v>4</v>
@@ -74393,13 +74417,13 @@
         <v>2132</v>
       </c>
       <c r="E2133" t="s">
-        <v>5</v>
+        <v>4003</v>
       </c>
       <c r="F2133" t="s">
-        <v>6</v>
+        <v>4004</v>
       </c>
       <c r="G2133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2133" t="s">
         <v>4</v>
@@ -74422,13 +74446,13 @@
         <v>2133</v>
       </c>
       <c r="E2134" t="s">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="F2134" t="s">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="G2134" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2134" t="s">
         <v>4</v>
@@ -74451,13 +74475,13 @@
         <v>2134</v>
       </c>
       <c r="E2135" t="s">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="F2135" t="s">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="G2135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2135" t="s">
         <v>4</v>
@@ -74480,13 +74504,13 @@
         <v>2135</v>
       </c>
       <c r="E2136" t="s">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="F2136" t="s">
-        <v>4008</v>
+        <v>4010</v>
       </c>
       <c r="G2136" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H2136" t="s">
         <v>4</v>
@@ -74509,10 +74533,10 @@
         <v>2136</v>
       </c>
       <c r="E2137" t="s">
-        <v>4009</v>
+        <v>5</v>
       </c>
       <c r="F2137" t="s">
-        <v>4010</v>
+        <v>6</v>
       </c>
       <c r="G2137" t="n">
         <v>2</v>
@@ -74631,7 +74655,7 @@
         <v>4018</v>
       </c>
       <c r="G2141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2141" t="s">
         <v>4</v>
@@ -74689,7 +74713,7 @@
         <v>4022</v>
       </c>
       <c r="G2143" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2143" t="s">
         <v>4</v>
@@ -74805,7 +74829,7 @@
         <v>4030</v>
       </c>
       <c r="G2147" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2147" t="s">
         <v>4</v>
@@ -74973,10 +74997,10 @@
         <v>2152</v>
       </c>
       <c r="E2153" t="s">
-        <v>295</v>
+        <v>4041</v>
       </c>
       <c r="F2153" t="s">
-        <v>296</v>
+        <v>4042</v>
       </c>
       <c r="G2153" t="n">
         <v>1</v>
@@ -75002,10 +75026,10 @@
         <v>2153</v>
       </c>
       <c r="E2154" t="s">
-        <v>4041</v>
+        <v>4043</v>
       </c>
       <c r="F2154" t="s">
-        <v>4042</v>
+        <v>4044</v>
       </c>
       <c r="G2154" t="n">
         <v>1</v>
@@ -75031,10 +75055,10 @@
         <v>2154</v>
       </c>
       <c r="E2155" t="s">
-        <v>4043</v>
+        <v>4045</v>
       </c>
       <c r="F2155" t="s">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="G2155" t="n">
         <v>1</v>
@@ -75060,10 +75084,10 @@
         <v>2155</v>
       </c>
       <c r="E2156" t="s">
-        <v>4045</v>
+        <v>4047</v>
       </c>
       <c r="F2156" t="s">
-        <v>4046</v>
+        <v>4048</v>
       </c>
       <c r="G2156" t="n">
         <v>1</v>
@@ -75089,13 +75113,13 @@
         <v>2156</v>
       </c>
       <c r="E2157" t="s">
-        <v>4047</v>
+        <v>295</v>
       </c>
       <c r="F2157" t="s">
-        <v>4048</v>
+        <v>296</v>
       </c>
       <c r="G2157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2157" t="s">
         <v>4</v>
@@ -75211,7 +75235,7 @@
         <v>4056</v>
       </c>
       <c r="G2161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2161" t="s">
         <v>4</v>
@@ -75275,6 +75299,122 @@
         <v>4</v>
       </c>
       <c r="I2163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:9">
+      <c r="A2164" s="1" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>2163</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>4061</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:9">
+      <c r="A2165" s="1" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>2164</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>4063</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>4064</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:9">
+      <c r="A2166" s="1" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>2165</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>4065</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>4066</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:9">
+      <c r="A2167" s="1" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>2166</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>4068</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2167" t="n">
         <v>3</v>
       </c>
     </row>
